--- a/Documents/プロジェクト定義書_社内FAQ.xlsx
+++ b/Documents/プロジェクト定義書_社内FAQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4f949345ffeaeb87/デスクトップ/Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devel\git\ShainKintaiKanriBss\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{94ADDB97-94DB-4CDB-8C06-3336568176DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E84C72D-3BA1-4085-B5CA-F77B78707FBA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53454F4-B13C-4BC8-8D6F-263107D3F807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="390" windowWidth="9570" windowHeight="10670" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="社内FAQ画面" sheetId="11" r:id="rId1"/>
@@ -1396,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4355686A-CB74-493E-AB28-0753F969CEB7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -1744,7 +1744,9 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="16"/>
   <cols>
@@ -2055,7 +2057,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
